--- a/thesis_output/p300_exp_output/statistics.xlsx
+++ b/thesis_output/p300_exp_output/statistics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itznu\PycharmProjects\use-of-snn\thesis_experiments\p300\p300_exp_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itznu\PycharmProjects\use-of-snn\thesis_output\p300_exp_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9525D2-6A00-4E8A-A431-294D6472E641}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B738DFB-786E-4F90-8CE9-40621FFFC583}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -430,10 +430,17 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
